--- a/TT2.xlsx
+++ b/TT2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P8\P8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\8. semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +125,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,18 +154,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,20 +500,17 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -672,72 +700,534 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
@@ -748,12 +1238,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TT2.xlsx
+++ b/TT2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\8. semester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P8\P8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Subjekt</t>
   </si>
@@ -111,23 +111,22 @@
   </si>
   <si>
     <t>Initial testing</t>
+  </si>
+  <si>
+    <t>Measurement Campaign</t>
+  </si>
+  <si>
+    <t>Results and analysing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,11 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,22 +169,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="God" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,737 +544,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N14" sqref="N14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="1"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1">
         <v>42786</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>42791</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>B2+7</f>
         <v>42793</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f t="shared" ref="E2:AC2" si="0">C2+7</f>
         <v>42798</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f t="shared" si="0"/>
         <v>42800</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f t="shared" si="0"/>
         <v>42805</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f t="shared" si="0"/>
         <v>42807</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f t="shared" si="0"/>
         <v>42812</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <f t="shared" si="0"/>
         <v>42814</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <f t="shared" si="0"/>
         <v>42819</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
         <v>42821</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <f t="shared" si="0"/>
         <v>42826</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f t="shared" si="0"/>
         <v>42828</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <f t="shared" si="0"/>
         <v>42833</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <f t="shared" si="0"/>
         <v>42835</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <f t="shared" si="0"/>
         <v>42840</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <f t="shared" si="0"/>
         <v>42847</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <f t="shared" si="0"/>
         <v>42854</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <f t="shared" si="0"/>
         <v>42856</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <f t="shared" si="0"/>
         <v>42861</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <f t="shared" si="0"/>
         <v>42868</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <f t="shared" si="0"/>
         <v>42875</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <f t="shared" si="0"/>
         <v>42882</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <f t="shared" ref="AD2" si="1">AB2+7</f>
         <v>42884</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <f t="shared" ref="AE2" si="2">AC2+7</f>
         <v>42889</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="5"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="5"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="5"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="5"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="5"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="257">
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
@@ -1238,6 +1593,12 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TT2.xlsx
+++ b/TT2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas-laptop\Desktop\P8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P8\P8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
   <si>
     <t>Subjekt</t>
   </si>
@@ -393,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,6 +403,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,86 +737,86 @@
       <selection activeCell="N14" sqref="N14:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30" t="s">
+      <c r="W1" s="34"/>
+      <c r="X1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="30"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="AE1" s="34"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
       <c r="B2" s="1">
         <v>42786</v>
       </c>
@@ -936,502 +936,502 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="32"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="32"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="31"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="32"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="31"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="32"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="31"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="32"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="31"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="32"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="31"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="32"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="32"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="31"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="31"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="32"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="31"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="32"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="31"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="32"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="31"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="32"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="31"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="32"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="31"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
@@ -1446,27 +1446,27 @@
       <c r="S17" s="6"/>
       <c r="T17" s="3"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="32"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V17" s="30"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
@@ -1481,77 +1481,264 @@
       <c r="S18" s="6"/>
       <c r="T18" s="5"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="32"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="31"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
@@ -1576,216 +1763,29 @@
     <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1796,38 +1796,38 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="1.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="35"/>
@@ -1835,8 +1835,8 @@
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="35"/>
@@ -1844,8 +1844,8 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="31" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="35"/>
@@ -1853,8 +1853,8 @@
       <c r="S1" s="35"/>
       <c r="T1" s="35"/>
       <c r="U1" s="35"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="X1" s="35"/>
@@ -1862,7 +1862,7 @@
       <c r="Z1" s="35"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
-      <c r="AC1" s="32"/>
+      <c r="AC1" s="31"/>
       <c r="AD1" s="36" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="AI1" s="36"/>
       <c r="AJ1" s="37"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="AI3" s="21"/>
       <c r="AJ3" s="22"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="AI4" s="21"/>
       <c r="AJ4" s="22"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>45</v>
       </c>
@@ -2133,8 +2133,12 @@
       <c r="I5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="18"/>
@@ -2161,7 +2165,7 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="22"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
@@ -2172,17 +2176,17 @@
       <c r="F6" s="16"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="19"/>
       <c r="P6" s="16"/>
@@ -2207,7 +2211,7 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="22"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -2235,8 +2239,12 @@
       <c r="O7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -2257,7 +2265,7 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="22"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -2302,8 +2310,12 @@
       <c r="R8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="S8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="15"/>
@@ -2321,7 +2333,7 @@
       <c r="AI8" s="21"/>
       <c r="AJ8" s="22"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
@@ -2385,7 +2397,7 @@
       <c r="AI9" s="21"/>
       <c r="AJ9" s="22"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
